--- a/PID list.xlsx
+++ b/PID list.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -457,7 +457,7 @@
   <dimension ref="A1:AMJ22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
